--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>799145.9746619824</v>
+        <v>826257.2520543771</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>606553.2040797166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6933112.270914518</v>
+        <v>7482854.854886189</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.4121592833065</v>
+        <v>348.0889168900784</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>72.13424985736026</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>10.04027365719996</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -902,7 +904,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>59.18212589108352</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>238.6997494928002</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.5532963163074</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>128.6782557582326</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>61.70843695422705</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>63.51633119327912</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>52.49195549286434</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.2274519599945</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>229.5694665726478</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002301</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>257.2926832743553</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>62.61079093391727</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>46.22530271040155</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1853,10 +1855,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2087,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2096,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647609</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>35.47248331510205</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170566</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3518,10 +3520,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3670,10 +3672,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,13 +3742,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>214.211065646574</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>220.369735337525</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3904,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>119.8634463900535</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225759</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>29.92029206558524</v>
       </c>
       <c r="W44" t="n">
-        <v>272.5149084496583</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647614</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>463.8244535754088</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C2" t="n">
-        <v>429.7223847992361</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D2" t="n">
-        <v>397.8530040140847</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E2" t="n">
-        <v>368.1186632127839</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F2" t="n">
-        <v>344.2916376623957</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>344.2916376623957</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1344.116250983141</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1344.116250983141</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1344.116250983141</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.293283011491</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V2" t="n">
-        <v>1811.676332945317</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="W2" t="n">
-        <v>1406.82087835635</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X2" t="n">
-        <v>987.678414935661</v>
+        <v>2434.076489375619</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.3922912353144</v>
+        <v>2429.830769715677</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>732.2102786755574</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L3" t="n">
-        <v>732.2102786755574</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M3" t="n">
-        <v>732.2102786755574</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N3" t="n">
-        <v>732.2102786755574</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O3" t="n">
-        <v>732.2102786755574</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P3" t="n">
-        <v>1177.245516579485</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.8207098557364</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>742.8207098557364</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>576.9427170572591</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>407.1847133079963</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>230.4776592697525</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>64.8863842955802</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>54.74469373275195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>1966.432666470481</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.477158340911</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1407.450753927203</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X4" t="n">
-        <v>1162.058999260615</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.6393285747235</v>
+        <v>1205.322255784308</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1627.509579840513</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>1189.367107023936</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D5" t="n">
-        <v>753.4573221983806</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E5" t="n">
-        <v>319.6825773566757</v>
+        <v>77.64503145187678</v>
       </c>
       <c r="F5" t="n">
-        <v>295.8555518062875</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>295.8555518062875</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K5" t="n">
-        <v>1167.464966128475</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L5" t="n">
-        <v>1344.116250983141</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M5" t="n">
-        <v>1344.116250983141</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N5" t="n">
-        <v>1344.116250983141</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.012383954615</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.012383954615</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2477.197333406052</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>2462.095274025767</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>2053.80915032542</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J6" t="n">
-        <v>379.3030186989643</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K6" t="n">
-        <v>379.3030186989643</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L6" t="n">
-        <v>379.3030186989643</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M6" t="n">
-        <v>1056.76860364177</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N6" t="n">
-        <v>1600.811677117221</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O6" t="n">
-        <v>1600.811677117221</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P6" t="n">
-        <v>1600.811677117221</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>905.2407308096831</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>732.679019292908</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>566.8010264944307</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>397.0430227451681</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>220.3359687069243</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2512.162934933549</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2266.283488512004</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1987.850487765109</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1700.894979635539</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1428.868575221831</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1183.476820555243</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1097.05934952867</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.651074442687</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>948.6730383232605</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>512.7632534977049</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>483.0289126964042</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>245.8805072316101</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>245.8805072316101</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>245.8805072316101</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>923.3460921744155</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1600.811677117221</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1600.811677117221</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1600.811677117221</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1021.253710602631</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C10" t="n">
-        <v>848.6919990858561</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>682.8140062873788</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>513.056002538116</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U10" t="n">
-        <v>2244.865667217376</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V10" t="n">
-        <v>1957.910159087806</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W10" t="n">
-        <v>1685.883754674098</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X10" t="n">
-        <v>1440.49200000751</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y10" t="n">
-        <v>1213.072329321618</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>493.3039559221886</v>
+        <v>2324.430227182452</v>
       </c>
       <c r="C11" t="n">
-        <v>55.16148310561195</v>
+        <v>1886.287754365876</v>
       </c>
       <c r="D11" t="n">
-        <v>55.16148310561195</v>
+        <v>1450.37796954032</v>
       </c>
       <c r="E11" t="n">
-        <v>55.16148310561195</v>
+        <v>1016.603224698615</v>
       </c>
       <c r="F11" t="n">
-        <v>55.16148310561195</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>55.16148310561195</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>732.2102786755574</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>732.2102786755574</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>732.2102786755574</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>732.2102786755574</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>1409.675863618363</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2087.141448561168</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2633.640234519763</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2653.582812821435</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2433.515585694473</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="U11" t="n">
-        <v>2174.293283011491</v>
+        <v>4345.630789443536</v>
       </c>
       <c r="V11" t="n">
-        <v>1811.676332945317</v>
+        <v>3983.013839377362</v>
       </c>
       <c r="W11" t="n">
-        <v>1406.82087835635</v>
+        <v>3578.158384788396</v>
       </c>
       <c r="X11" t="n">
-        <v>987.678414935661</v>
+        <v>3159.015921367707</v>
       </c>
       <c r="Y11" t="n">
-        <v>579.3922912353144</v>
+        <v>2750.72979766736</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>363.05328532595</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>363.05328532595</v>
+        <v>479.432103632509</v>
       </c>
       <c r="L12" t="n">
-        <v>363.05328532595</v>
+        <v>479.432103632509</v>
       </c>
       <c r="M12" t="n">
-        <v>1040.518870268755</v>
+        <v>479.432103632509</v>
       </c>
       <c r="N12" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O12" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P12" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.414810959378</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.459302829808</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.4328984161</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.041143749512</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>716.0341243765137</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>716.0341243765137</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>716.0341243765137</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>716.0341243765137</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>716.0341243765137</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>314.6362929997775</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>1686.072621982323</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>2811.80360541877</v>
       </c>
       <c r="O14" t="n">
-        <v>1844.930551071281</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2190.735900679003</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V14" t="n">
-        <v>2374.617736571424</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>1969.762281982458</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>1550.619818561768</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1142.333694861421</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>418.328424285066</v>
       </c>
       <c r="K15" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="L15" t="n">
-        <v>1060.072738485145</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.072738485145</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="N15" t="n">
-        <v>1060.072738485145</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2649.986482340924</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>2404.107035919379</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5503,7 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5513,16 +5515,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5735,13 +5737,13 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5832,25 +5834,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6069,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3184.458419759167</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>3148.627628531791</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>2982.749635733314</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>2812.991631984051</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>2636.284577945808</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>2636.284577945808</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U25" t="n">
-        <v>4408.070376373911</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>4121.114868244342</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>3849.088463830633</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.696709164046</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.277038478154</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3205.876241053795</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>3033.31452953702</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>2867.436536738543</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>2697.67853298928</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>2520.971478951036</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>4953.800644836978</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>4707.921198415434</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>4429.488197668539</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>4142.53268953897</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>3870.506285125261</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>3625.114530458674</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>3397.694859772782</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
@@ -6689,10 +6691,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6709,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6731,16 +6733,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
         <v>2955.199618136697</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>228.5247761102221</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>228.5247761102221</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1303.584742363081</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2460.632577573632</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3586.363561010079</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7168,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,22 +7180,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1601.005850966133</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176684</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1609.04989408262</v>
+        <v>2447.237176554637</v>
       </c>
       <c r="C41" t="n">
-        <v>1609.04989408262</v>
+        <v>2009.094703738061</v>
       </c>
       <c r="D41" t="n">
-        <v>1173.140109257064</v>
+        <v>1573.184918912505</v>
       </c>
       <c r="E41" t="n">
-        <v>1173.140109257064</v>
+        <v>1139.4101740708</v>
       </c>
       <c r="F41" t="n">
-        <v>745.2726796662719</v>
+        <v>711.542744480008</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8748482895357</v>
+        <v>310.1449131032718</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M41" t="n">
-        <v>732.2102786755574</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="N41" t="n">
-        <v>1409.675863618363</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O41" t="n">
-        <v>1513.270315736198</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>2517.167459510636</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U41" t="n">
-        <v>2257.945156827654</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="V41" t="n">
-        <v>2035.349464567527</v>
+        <v>4105.820788749547</v>
       </c>
       <c r="W41" t="n">
-        <v>2035.349464567527</v>
+        <v>3700.965334160581</v>
       </c>
       <c r="X41" t="n">
-        <v>2035.349464567527</v>
+        <v>3281.822870739892</v>
       </c>
       <c r="Y41" t="n">
-        <v>2035.349464567527</v>
+        <v>2873.536747039545</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>808.6510928577823</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C43" t="n">
-        <v>636.0893813410072</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D43" t="n">
-        <v>470.2113885425299</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E43" t="n">
-        <v>349.1372002697486</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F43" t="n">
-        <v>349.1372002697486</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G43" t="n">
-        <v>349.1372002697486</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H43" t="n">
-        <v>209.2350259601232</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>207.1547618994884</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>481.9132164706239</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>900.123098238585</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1359.606965419498</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1801.865768577142</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2221.535017802924</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2569.041911773266</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2715.81686534297</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2556.575496640966</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2310.696050219422</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2032.263049472527</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>1745.307541342957</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1473.281136929249</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1227.889382262661</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000.469711576769</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2042.824638924325</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>2042.824638924325</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1606.914854098769</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>1173.140109257064</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>745.2726796662719</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8748482895357</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K44" t="n">
-        <v>732.2102786755574</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L44" t="n">
-        <v>732.2102786755574</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M44" t="n">
-        <v>732.2102786755574</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N44" t="n">
-        <v>732.2102786755574</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W44" t="n">
-        <v>2461.967102345014</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>2042.824638924325</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2042.824638924325</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>3531.436949455166</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>3424.980488291808</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>3329.890199438361</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>3235.769784765315</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>3152.385946381477</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>3067.000856647661</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>3051.328877624331</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>3375.887202590544</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>4571.332187848342</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>4625.049528391065</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>4494.870884721667</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>4318.534337721635</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>4119.416819783634</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>3934.094065516828</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>3779.226629755708</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>3652.740850534929</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>905.2407308096831</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C46" t="n">
-        <v>732.679019292908</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D46" t="n">
-        <v>566.8010264944307</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E46" t="n">
-        <v>397.0430227451681</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F46" t="n">
-        <v>220.3359687069243</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2653.165134592867</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2407.285688171322</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>2128.852687424428</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V46" t="n">
-        <v>1841.897179294858</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1569.87077488115</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X46" t="n">
-        <v>1324.479020214562</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.05934952867</v>
+        <v>1275.986929424397</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8055,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>449.5305433373007</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5384580560115</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8453,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8529,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>166.7395356953541</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593996</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>104.640860725086</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8768,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>285.0958772047883</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.39394564341961</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593994</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>336.0996312917832</v>
       </c>
       <c r="P14" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>546.2375134827066</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>92.06596429261208</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>127.53932913075</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>231.4545770548061</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="O41" t="n">
-        <v>104.640860725086</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>618.0868407147311</v>
+        <v>697.3710058236124</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>336.8091228200642</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>194.0192887222365</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>28.94616973686061</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>194.019288722236</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>229.4233680290242</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>135.3636110865053</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>72.02778736464191</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25682,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>138.6210452279867</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>48.19697732171666</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>329.0704884999265</v>
       </c>
       <c r="W44" t="n">
-        <v>128.2919915934187</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>120.4463752142714</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>651604.5087789794</v>
+        <v>651075.2059015085</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>651604.5087789794</v>
+        <v>651075.2059015085</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>651604.5087789794</v>
+        <v>651075.2059015085</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>429920.8557590079</v>
+        <v>618592.5039507332</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>429920.8557590078</v>
+        <v>618592.5039507332</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659641.7144767953</v>
+        <v>659641.7144767952</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659641.7144767953</v>
+        <v>659641.7144767952</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>429920.8557590078</v>
+        <v>618592.5039507332</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429920.8557590078</v>
+        <v>618592.5039507332</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.3919342449</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="C2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
         <v>321688.3919342451</v>
       </c>
       <c r="E2" t="n">
-        <v>206027.3555759991</v>
+        <v>296442.8825931294</v>
       </c>
       <c r="F2" t="n">
-        <v>206027.355575999</v>
+        <v>296442.8825931295</v>
       </c>
       <c r="G2" t="n">
-        <v>316114.5504824114</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="H2" t="n">
         <v>316114.5504824114</v>
@@ -26350,10 +26352,10 @@
         <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
-        <v>206027.355575999</v>
+        <v>296442.8825931294</v>
       </c>
       <c r="P2" t="n">
-        <v>206027.355575999</v>
+        <v>296442.8825931296</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145586.4697342201</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="C4" t="n">
-        <v>145586.46973422</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>145586.4697342201</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>35560.61726858468</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="F4" t="n">
-        <v>35560.61726858468</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="G4" t="n">
         <v>54561.82510962276</v>
@@ -26448,16 +26450,16 @@
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962278</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="O4" t="n">
-        <v>35560.61726858468</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="P4" t="n">
-        <v>35560.61726858468</v>
+        <v>51166.46699861009</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128459.2200093796</v>
+        <v>-124234.0254573466</v>
       </c>
       <c r="C6" t="n">
-        <v>100868.3549631336</v>
+        <v>99465.67312669815</v>
       </c>
       <c r="D6" t="n">
-        <v>100868.3549631335</v>
+        <v>99465.67312669821</v>
       </c>
       <c r="E6" t="n">
-        <v>128860.7710705229</v>
+        <v>23345.38654044282</v>
       </c>
       <c r="F6" t="n">
-        <v>128860.7710705229</v>
+        <v>174011.1401121906</v>
       </c>
       <c r="G6" t="n">
-        <v>21041.19896855467</v>
+        <v>154744.6775943882</v>
       </c>
       <c r="H6" t="n">
         <v>183834.4867669961</v>
@@ -26543,25 +26545,25 @@
         <v>183834.4867669961</v>
       </c>
       <c r="J6" t="n">
-        <v>4789.228679344145</v>
+        <v>9183.138049289875</v>
       </c>
       <c r="K6" t="n">
         <v>183834.4867669961</v>
       </c>
       <c r="L6" t="n">
+        <v>183834.486766996</v>
+      </c>
+      <c r="M6" t="n">
+        <v>58083.39843130542</v>
+      </c>
+      <c r="N6" t="n">
         <v>183834.4867669961</v>
       </c>
-      <c r="M6" t="n">
-        <v>183834.486766996</v>
-      </c>
-      <c r="N6" t="n">
-        <v>183834.486766996</v>
-      </c>
       <c r="O6" t="n">
-        <v>128860.7710705229</v>
+        <v>174011.1401121906</v>
       </c>
       <c r="P6" t="n">
-        <v>128860.7710705229</v>
+        <v>174011.1401121907</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.6244154967521</v>
+        <v>73.94765788998029</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>117.766182674437</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>128.4628789093293</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>370.2548715022043</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>47.53910351841571</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>305.0827923301783</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>111.4236523045822</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>190.928696464465</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>449.5305433373007</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5384580560115</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35173,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>166.7395356953541</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593996</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>104.640860725086</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>285.0958772047883</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.39394564341961</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593994</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>336.0996312917832</v>
       </c>
       <c r="P14" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>546.2375134827066</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>92.06596429261208</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>127.53932913075</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37546,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>231.4545770548061</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593996</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="O41" t="n">
-        <v>104.640860725086</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>618.0868407147311</v>
+        <v>697.3710058236124</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>826257.2520543771</v>
+        <v>825651.1644254801</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797166</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7482854.854886189</v>
+        <v>7482854.854886191</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0889168900784</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>216.0661818983677</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -679,7 +679,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.13424985736026</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>81.0109880549457</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>59.18212589108352</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>129.4758400432336</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1104,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1138,16 +1138,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>61.70843695422705</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>136.2952494436085</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>52.49195549286434</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>229.5694665726478</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.3645643407338</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.13954148002301</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1660,19 +1660,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>62.61079093391727</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>403.8720952516329</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022982</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.6990987647609</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>155.4300230108085</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>10.04027365719926</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3757,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>214.211065646574</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>29.92029206558705</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>50.29424103733312</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>29.92029206558524</v>
+        <v>203.7350166437391</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>104.6990987647614</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2078.225803160042</v>
+        <v>1456.941072251152</v>
       </c>
       <c r="C2" t="n">
-        <v>1640.083330343465</v>
+        <v>1422.839003474979</v>
       </c>
       <c r="D2" t="n">
-        <v>1204.173545517909</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>770.3988006762045</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4336,22 +4336,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304467</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W2" t="n">
-        <v>2449.178548755904</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X2" t="n">
-        <v>2434.076489375619</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y2" t="n">
-        <v>2429.830769715677</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1678.133681136788</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1432.7419264702</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y4" t="n">
-        <v>1205.322255784308</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C5" t="n">
-        <v>573.3347414199409</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4249565943854</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187678</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>714.241271070407</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>801.8819313892767</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>801.8819313892767</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>801.8819313892767</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1462.721985931055</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472834</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>2234.742998128394</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D8" t="n">
-        <v>511.0029869207216</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194209</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>2212.752646424497</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.7523231022661</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>783.1906115854911</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>617.3126187870138</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2457.797280463905</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2179.364279717011</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1892.408771587441</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1620.382367173733</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1374.990612507145</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1147.570941821253</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2324.430227182452</v>
+        <v>2119.011475323127</v>
       </c>
       <c r="C11" t="n">
-        <v>1886.287754365876</v>
+        <v>1680.86900250655</v>
       </c>
       <c r="D11" t="n">
-        <v>1450.37796954032</v>
+        <v>1244.959217680994</v>
       </c>
       <c r="E11" t="n">
-        <v>1016.603224698615</v>
+        <v>811.1844728392896</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G11" t="n">
         <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827329</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397635</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231031</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189626</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4604.853092126519</v>
+        <v>4399.434340267194</v>
       </c>
       <c r="U11" t="n">
-        <v>4345.630789443536</v>
+        <v>4140.212037584211</v>
       </c>
       <c r="V11" t="n">
-        <v>3983.013839377362</v>
+        <v>3777.595087518037</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.158384788396</v>
+        <v>3372.73963292907</v>
       </c>
       <c r="X11" t="n">
-        <v>3159.015921367707</v>
+        <v>2953.597169508381</v>
       </c>
       <c r="Y11" t="n">
-        <v>2750.72979766736</v>
+        <v>2545.311045808035</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,7 +5114,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
         <v>119.8337724793113</v>
@@ -5123,37 +5123,37 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>479.432103632509</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>479.432103632509</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>479.432103632509</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418378</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250627</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4064111265855</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>273.6484073773227</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>96.94135333907892</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.664734160825</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5272,52 +5272,52 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>529.0247867717716</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K14" t="n">
-        <v>529.0247867717716</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L14" t="n">
-        <v>529.0247867717716</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>1686.072621982323</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>2811.80360541877</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4604.853092126519</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>4541.609868960946</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.137464305806</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="X14" t="n">
         <v>3354.995000885117</v>
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.061944355443</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.2661363957848</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>771.7044248790097</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>605.8264320805324</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E16" t="n">
-        <v>436.0684283312697</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F16" t="n">
-        <v>259.361374293026</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.190540178969</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.311093757424</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2167.878093010529</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1880.92258488096</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.896180467251</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.504425800664</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.084755114772</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5515,16 +5515,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5785,19 +5785,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6177,22 +6177,22 @@
         <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6679,7 +6679,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
@@ -6691,37 +6691,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6733,16 +6733,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
         <v>2955.199618136697</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="35">
@@ -6925,37 +6925,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>228.5247761102221</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>228.5247761102221</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>1303.584742363081</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2460.632577573632</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3586.363561010079</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>949.5782250957668</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>777.0165135789917</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D40" t="n">
-        <v>611.1385207805145</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E40" t="n">
-        <v>441.3805170312517</v>
+        <v>454.7008598460233</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6734629930079</v>
+        <v>277.9938058077795</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>112.4025308336072</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814754</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2447.237176554637</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>2009.094703738061</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1573.184918912505</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1139.4101740708</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>711.542744480008</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>310.1449131032718</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4468.437738815721</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U41" t="n">
-        <v>4468.437738815721</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V41" t="n">
-        <v>4105.820788749547</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>3700.965334160581</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>3281.822870739892</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.536747039545</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,7 +7484,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.5053054384693</v>
+        <v>1053.872519855546</v>
       </c>
       <c r="C43" t="n">
-        <v>789.9435939216943</v>
+        <v>881.3108083387712</v>
       </c>
       <c r="D43" t="n">
-        <v>624.065601123217</v>
+        <v>715.4328155402939</v>
       </c>
       <c r="E43" t="n">
-        <v>454.3075973739543</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F43" t="n">
-        <v>277.6005433357104</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G43" t="n">
-        <v>112.0092683615381</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2710.429709221653</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2464.550262800109</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2186.117262053214</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1899.161753923644</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1627.135349509936</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="X43" t="n">
-        <v>1381.743594843348</v>
+        <v>1473.110809260425</v>
       </c>
       <c r="Y43" t="n">
-        <v>1154.323924157457</v>
+        <v>1245.691138574533</v>
       </c>
     </row>
     <row r="44">
@@ -7642,46 +7642,46 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885365</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1168.830065571713</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>2325.877900782264</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>3451.608884218711</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>4142.006179984088</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4468.437738815721</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.215436132738</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V44" t="n">
         <v>4178.992918894773</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3531.436949455166</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>3424.980488291808</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>3329.890199438361</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>3235.769784765315</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>3152.385946381477</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>3067.000856647661</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>3025.265204463873</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>3051.328877624331</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>3375.887202590544</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>4571.332187848342</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>4688.504965942682</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>4625.049528391065</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>4494.870884721667</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>4318.534337721635</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>4119.416819783634</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>3934.094065516828</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>3779.226629755708</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>3652.740850534929</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1084.16831070541</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>911.6065991886352</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>745.7286063901579</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>575.9706026408952</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>399.2635486026514</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>233.6722736284791</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2710.429709221653</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2464.550262800109</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2186.117262053214</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1899.161753923644</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1627.135349509936</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1381.743594843348</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.986929424397</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8218,10 +8218,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>35.39394564341961</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>336.0996312917832</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>546.2375134827066</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>127.53932913075</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>162.8103194923613</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>697.3710058236124</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>194.0192887222365</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>14.50199051495792</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>194.019288722236</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>11.07894353484949</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>8.789189859684058</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>128.46287890933</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>72.02778736464191</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>329.0704884999247</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>117.766182674437</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>329.0704884999265</v>
+        <v>155.2557639217726</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.4463752142714</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618592.5039507332</v>
+        <v>618592.5039507333</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>618592.5039507332</v>
+        <v>618592.5039507333</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659641.7144767952</v>
+        <v>659641.7144767953</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659641.7144767953</v>
+        <v>659641.7144767952</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>618592.5039507332</v>
+        <v>618592.5039507335</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>618592.5039507332</v>
+        <v>618592.5039507335</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321688.391934245</v>
+      </c>
+      <c r="C2" t="n">
         <v>321688.3919342451</v>
-      </c>
-      <c r="C2" t="n">
-        <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
         <v>321688.3919342451</v>
       </c>
       <c r="E2" t="n">
-        <v>296442.8825931294</v>
+        <v>296442.8825931295</v>
       </c>
       <c r="F2" t="n">
         <v>296442.8825931295</v>
       </c>
       <c r="G2" t="n">
+        <v>316114.5504824114</v>
+      </c>
+      <c r="H2" t="n">
         <v>316114.5504824113</v>
-      </c>
-      <c r="H2" t="n">
-        <v>316114.5504824114</v>
       </c>
       <c r="I2" t="n">
         <v>316114.5504824113</v>
@@ -26352,7 +26352,7 @@
         <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
-        <v>296442.8825931294</v>
+        <v>296442.8825931296</v>
       </c>
       <c r="P2" t="n">
         <v>296442.8825931296</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148010.1942457891</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="C4" t="n">
         <v>148010.1942457891</v>
@@ -26426,16 +26426,16 @@
         <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.4669986101</v>
       </c>
       <c r="F4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.4669986101</v>
       </c>
       <c r="G4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26444,7 +26444,7 @@
         <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962276</v>
@@ -26453,13 +26453,13 @@
         <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="O4" t="n">
         <v>51166.46699861009</v>
       </c>
       <c r="P4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.4669986101</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124234.0254573466</v>
+        <v>-124234.0254573467</v>
       </c>
       <c r="C6" t="n">
-        <v>99465.67312669815</v>
+        <v>99465.67312669822</v>
       </c>
       <c r="D6" t="n">
-        <v>99465.67312669821</v>
+        <v>99465.67312669825</v>
       </c>
       <c r="E6" t="n">
-        <v>23345.38654044282</v>
+        <v>23240.19691818801</v>
       </c>
       <c r="F6" t="n">
-        <v>174011.1401121906</v>
+        <v>173905.9504899359</v>
       </c>
       <c r="G6" t="n">
-        <v>154744.6775943882</v>
+        <v>154721.4532550057</v>
       </c>
       <c r="H6" t="n">
-        <v>183834.4867669961</v>
+        <v>183811.2624276134</v>
       </c>
       <c r="I6" t="n">
-        <v>183834.4867669961</v>
+        <v>183811.2624276134</v>
       </c>
       <c r="J6" t="n">
-        <v>9183.138049289875</v>
+        <v>9159.913709907234</v>
       </c>
       <c r="K6" t="n">
-        <v>183834.4867669961</v>
+        <v>183811.2624276134</v>
       </c>
       <c r="L6" t="n">
-        <v>183834.486766996</v>
+        <v>183811.2624276134</v>
       </c>
       <c r="M6" t="n">
-        <v>58083.39843130542</v>
+        <v>58060.17409192258</v>
       </c>
       <c r="N6" t="n">
-        <v>183834.4867669961</v>
+        <v>183811.2624276134</v>
       </c>
       <c r="O6" t="n">
-        <v>174011.1401121906</v>
+        <v>173905.950489936</v>
       </c>
       <c r="P6" t="n">
-        <v>174011.1401121907</v>
+        <v>173905.950489936</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.94765788998029</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>215.4845050789322</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>144.1344859240871</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>370.2548715022043</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>229.5149405222782</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>48.19697732171632</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.8422500230728</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27915,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>267.9080130197346</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>190.928696464465</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>35.39394564341961</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>336.0996312917832</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>546.2375134827066</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>127.53932913075</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37326,7 +37326,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37791,10 +37791,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>162.8103194923613</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>697.3710058236124</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
